--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Tnfsf14-Ltbr.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Tnfsf14-Ltbr.xlsx
@@ -534,52 +534,52 @@
         <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.850614861155063</v>
+        <v>0.9584923333333334</v>
       </c>
       <c r="H2">
-        <v>0.850614861155063</v>
+        <v>2.875477</v>
       </c>
       <c r="I2">
-        <v>0.3029516427918449</v>
+        <v>0.2532195598902293</v>
       </c>
       <c r="J2">
-        <v>0.3029516427918449</v>
+        <v>0.2532195598902293</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.1359788021329</v>
+        <v>14.29506233333333</v>
       </c>
       <c r="N2">
-        <v>14.1359788021329</v>
+        <v>42.885187</v>
       </c>
       <c r="O2">
-        <v>0.2036135294580697</v>
+        <v>0.2033714702773193</v>
       </c>
       <c r="P2">
-        <v>0.2036135294580697</v>
+        <v>0.2033714702773193</v>
       </c>
       <c r="Q2">
-        <v>12.02427364606719</v>
+        <v>13.70170765102211</v>
       </c>
       <c r="R2">
-        <v>12.02427364606719</v>
+        <v>123.315368859199</v>
       </c>
       <c r="S2">
-        <v>0.06168505324396791</v>
+        <v>0.05149763419785165</v>
       </c>
       <c r="T2">
-        <v>0.06168505324396791</v>
+        <v>0.05149763419785163</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.850614861155063</v>
+        <v>0.9584923333333334</v>
       </c>
       <c r="H3">
-        <v>0.850614861155063</v>
+        <v>2.875477</v>
       </c>
       <c r="I3">
-        <v>0.3029516427918449</v>
+        <v>0.2532195598902293</v>
       </c>
       <c r="J3">
-        <v>0.3029516427918449</v>
+        <v>0.2532195598902293</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>21.0292074716628</v>
+        <v>21.21615033333333</v>
       </c>
       <c r="N3">
-        <v>21.0292074716628</v>
+        <v>63.648451</v>
       </c>
       <c r="O3">
-        <v>0.3029030543230024</v>
+        <v>0.3018356678902651</v>
       </c>
       <c r="P3">
-        <v>0.3029030543230024</v>
+        <v>0.3018356678902651</v>
       </c>
       <c r="Q3">
-        <v>17.88775639370947</v>
+        <v>20.33551743734745</v>
       </c>
       <c r="R3">
-        <v>17.88775639370947</v>
+        <v>183.019656936127</v>
       </c>
       <c r="S3">
-        <v>0.09176497791382102</v>
+        <v>0.07643069498234634</v>
       </c>
       <c r="T3">
-        <v>0.09176497791382102</v>
+        <v>0.07643069498234632</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.850614861155063</v>
+        <v>0.9584923333333334</v>
       </c>
       <c r="H4">
-        <v>0.850614861155063</v>
+        <v>2.875477</v>
       </c>
       <c r="I4">
-        <v>0.3029516427918449</v>
+        <v>0.2532195598902293</v>
       </c>
       <c r="J4">
-        <v>0.3029516427918449</v>
+        <v>0.2532195598902293</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.694505123614</v>
+        <v>14.99890066666667</v>
       </c>
       <c r="N4">
-        <v>14.694505123614</v>
+        <v>44.996702</v>
       </c>
       <c r="O4">
-        <v>0.2116584987667984</v>
+        <v>0.2133847625141612</v>
       </c>
       <c r="P4">
-        <v>0.2116584987667984</v>
+        <v>0.2133847625141612</v>
       </c>
       <c r="Q4">
-        <v>12.49936443546529</v>
+        <v>14.37633129742822</v>
       </c>
       <c r="R4">
-        <v>12.49936443546529</v>
+        <v>129.386981676854</v>
       </c>
       <c r="S4">
-        <v>0.06412228991225725</v>
+        <v>0.05403319565111699</v>
       </c>
       <c r="T4">
-        <v>0.06412228991225725</v>
+        <v>0.05403319565111699</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.850614861155063</v>
+        <v>0.9584923333333334</v>
       </c>
       <c r="H5">
-        <v>0.850614861155063</v>
+        <v>2.875477</v>
       </c>
       <c r="I5">
-        <v>0.3029516427918449</v>
+        <v>0.2532195598902293</v>
       </c>
       <c r="J5">
-        <v>0.3029516427918449</v>
+        <v>0.2532195598902293</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.9765844716739</v>
+        <v>16.03541933333333</v>
       </c>
       <c r="N5">
-        <v>15.9765844716739</v>
+        <v>48.106258</v>
       </c>
       <c r="O5">
-        <v>0.2301254690953327</v>
+        <v>0.228130995884431</v>
       </c>
       <c r="P5">
-        <v>0.2301254690953327</v>
+        <v>0.2281309958844309</v>
       </c>
       <c r="Q5">
-        <v>13.58992018210503</v>
+        <v>15.36982649278511</v>
       </c>
       <c r="R5">
-        <v>13.58992018210503</v>
+        <v>138.328438435066</v>
       </c>
       <c r="S5">
-        <v>0.06971688891067496</v>
+        <v>0.05776723037517532</v>
       </c>
       <c r="T5">
-        <v>0.06971688891067496</v>
+        <v>0.05776723037517531</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.850614861155063</v>
+        <v>0.9584923333333334</v>
       </c>
       <c r="H6">
-        <v>0.850614861155063</v>
+        <v>2.875477</v>
       </c>
       <c r="I6">
-        <v>0.3029516427918449</v>
+        <v>0.2532195598902293</v>
       </c>
       <c r="J6">
-        <v>0.3029516427918449</v>
+        <v>0.2532195598902293</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.58926201023466</v>
+        <v>3.744869</v>
       </c>
       <c r="N6">
-        <v>3.58926201023466</v>
+        <v>11.234607</v>
       </c>
       <c r="O6">
-        <v>0.05169944835679689</v>
+        <v>0.05327710343382351</v>
       </c>
       <c r="P6">
-        <v>0.05169944835679689</v>
+        <v>0.0532771034338235</v>
       </c>
       <c r="Q6">
-        <v>3.053079606484898</v>
+        <v>3.589428225837667</v>
       </c>
       <c r="R6">
-        <v>3.053079606484898</v>
+        <v>32.30485403253901</v>
       </c>
       <c r="S6">
-        <v>0.01566243281112376</v>
+        <v>0.01349080468373901</v>
       </c>
       <c r="T6">
-        <v>0.01566243281112376</v>
+        <v>0.01349080468373901</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.95714301504009</v>
+        <v>2.82673</v>
       </c>
       <c r="H7">
-        <v>1.95714301504009</v>
+        <v>8.48019</v>
       </c>
       <c r="I7">
-        <v>0.6970483572081551</v>
+        <v>0.7467804401097707</v>
       </c>
       <c r="J7">
-        <v>0.6970483572081551</v>
+        <v>0.7467804401097707</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.1359788021329</v>
+        <v>14.29506233333333</v>
       </c>
       <c r="N7">
-        <v>14.1359788021329</v>
+        <v>42.885187</v>
       </c>
       <c r="O7">
-        <v>0.2036135294580697</v>
+        <v>0.2033714702773193</v>
       </c>
       <c r="P7">
-        <v>0.2036135294580697</v>
+        <v>0.2033714702773193</v>
       </c>
       <c r="Q7">
-        <v>27.66613217334918</v>
+        <v>40.40828154950334</v>
       </c>
       <c r="R7">
-        <v>27.66613217334918</v>
+        <v>363.67453394553</v>
       </c>
       <c r="S7">
-        <v>0.1419284762141018</v>
+        <v>0.1518738360794677</v>
       </c>
       <c r="T7">
-        <v>0.1419284762141018</v>
+        <v>0.1518738360794676</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.95714301504009</v>
+        <v>2.82673</v>
       </c>
       <c r="H8">
-        <v>1.95714301504009</v>
+        <v>8.48019</v>
       </c>
       <c r="I8">
-        <v>0.6970483572081551</v>
+        <v>0.7467804401097707</v>
       </c>
       <c r="J8">
-        <v>0.6970483572081551</v>
+        <v>0.7467804401097707</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.0292074716628</v>
+        <v>21.21615033333333</v>
       </c>
       <c r="N8">
-        <v>21.0292074716628</v>
+        <v>63.648451</v>
       </c>
       <c r="O8">
-        <v>0.3029030543230024</v>
+        <v>0.3018356678902651</v>
       </c>
       <c r="P8">
-        <v>0.3029030543230024</v>
+        <v>0.3018356678902651</v>
       </c>
       <c r="Q8">
-        <v>41.15716651499372</v>
+        <v>59.97232863174334</v>
       </c>
       <c r="R8">
-        <v>41.15716651499372</v>
+        <v>539.7509576856901</v>
       </c>
       <c r="S8">
-        <v>0.2111380764091814</v>
+        <v>0.2254049729079188</v>
       </c>
       <c r="T8">
-        <v>0.2111380764091814</v>
+        <v>0.2254049729079187</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.95714301504009</v>
+        <v>2.82673</v>
       </c>
       <c r="H9">
-        <v>1.95714301504009</v>
+        <v>8.48019</v>
       </c>
       <c r="I9">
-        <v>0.6970483572081551</v>
+        <v>0.7467804401097707</v>
       </c>
       <c r="J9">
-        <v>0.6970483572081551</v>
+        <v>0.7467804401097707</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.694505123614</v>
+        <v>14.99890066666667</v>
       </c>
       <c r="N9">
-        <v>14.694505123614</v>
+        <v>44.996702</v>
       </c>
       <c r="O9">
-        <v>0.2116584987667984</v>
+        <v>0.2133847625141612</v>
       </c>
       <c r="P9">
-        <v>0.2116584987667984</v>
+        <v>0.2133847625141612</v>
       </c>
       <c r="Q9">
-        <v>28.75924806215195</v>
+        <v>42.39784248148666</v>
       </c>
       <c r="R9">
-        <v>28.75924806215195</v>
+        <v>381.58058233338</v>
       </c>
       <c r="S9">
-        <v>0.1475362088545412</v>
+        <v>0.1593515668630442</v>
       </c>
       <c r="T9">
-        <v>0.1475362088545412</v>
+        <v>0.1593515668630442</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.95714301504009</v>
+        <v>2.82673</v>
       </c>
       <c r="H10">
-        <v>1.95714301504009</v>
+        <v>8.48019</v>
       </c>
       <c r="I10">
-        <v>0.6970483572081551</v>
+        <v>0.7467804401097707</v>
       </c>
       <c r="J10">
-        <v>0.6970483572081551</v>
+        <v>0.7467804401097707</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.9765844716739</v>
+        <v>16.03541933333333</v>
       </c>
       <c r="N10">
-        <v>15.9765844716739</v>
+        <v>48.106258</v>
       </c>
       <c r="O10">
-        <v>0.2301254690953327</v>
+        <v>0.228130995884431</v>
       </c>
       <c r="P10">
-        <v>0.2301254690953327</v>
+        <v>0.2281309958844309</v>
       </c>
       <c r="Q10">
-        <v>31.26846070293454</v>
+        <v>45.32780089211333</v>
       </c>
       <c r="R10">
-        <v>31.26846070293454</v>
+        <v>407.95020802902</v>
       </c>
       <c r="S10">
-        <v>0.1604085801846577</v>
+        <v>0.1703637655092557</v>
       </c>
       <c r="T10">
-        <v>0.1604085801846577</v>
+        <v>0.1703637655092556</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.95714301504009</v>
+        <v>2.82673</v>
       </c>
       <c r="H11">
-        <v>1.95714301504009</v>
+        <v>8.48019</v>
       </c>
       <c r="I11">
-        <v>0.6970483572081551</v>
+        <v>0.7467804401097707</v>
       </c>
       <c r="J11">
-        <v>0.6970483572081551</v>
+        <v>0.7467804401097707</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.58926201023466</v>
+        <v>3.744869</v>
       </c>
       <c r="N11">
-        <v>3.58926201023466</v>
+        <v>11.234607</v>
       </c>
       <c r="O11">
-        <v>0.05169944835679689</v>
+        <v>0.05327710343382351</v>
       </c>
       <c r="P11">
-        <v>0.05169944835679689</v>
+        <v>0.0532771034338235</v>
       </c>
       <c r="Q11">
-        <v>7.024699072479517</v>
+        <v>10.58573354837</v>
       </c>
       <c r="R11">
-        <v>7.024699072479517</v>
+        <v>95.27160193533001</v>
       </c>
       <c r="S11">
-        <v>0.03603701554567312</v>
+        <v>0.0397862987500845</v>
       </c>
       <c r="T11">
-        <v>0.03603701554567312</v>
+        <v>0.03978629875008449</v>
       </c>
     </row>
   </sheetData>
